--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1685894.198235032</v>
+        <v>1683352.623092107</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1370,19 +1370,19 @@
         <v>338.7138576864072</v>
       </c>
       <c r="C11" t="n">
-        <v>206.3207746244984</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.6630576436096</v>
       </c>
       <c r="E11" t="n">
         <v>337.9103860951884</v>
       </c>
       <c r="F11" t="n">
-        <v>362.8560617646381</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>366.9017416763801</v>
+        <v>299.7044037205108</v>
       </c>
       <c r="H11" t="n">
         <v>250.5877804102471</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.1677778111025</v>
+        <v>65.16777781110247</v>
       </c>
       <c r="T11" t="n">
         <v>159.8979861625468</v>
@@ -1427,16 +1427,16 @@
         <v>206.9751879818286</v>
       </c>
       <c r="V11" t="n">
-        <v>283.7322744930616</v>
+        <v>283.7322744930615</v>
       </c>
       <c r="W11" t="n">
         <v>305.2209847403396</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>325.7111167013957</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.2179546789803</v>
+        <v>342.2179546789802</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.35879310893274</v>
+        <v>135.8119962048639</v>
       </c>
       <c r="C13" t="n">
         <v>123.2268371215545</v>
@@ -1543,10 +1543,10 @@
         <v>122.0058242819549</v>
       </c>
       <c r="H13" t="n">
-        <v>100.7350309372474</v>
+        <v>30.28182784131615</v>
       </c>
       <c r="I13" t="n">
-        <v>52.33243643276476</v>
+        <v>52.33243643276473</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.91216869297399</v>
+        <v>44.91216869297396</v>
       </c>
       <c r="S13" t="n">
-        <v>145.7490413543686</v>
+        <v>145.7490413543685</v>
       </c>
       <c r="T13" t="n">
-        <v>175.5289652990959</v>
+        <v>175.5289652990958</v>
       </c>
       <c r="U13" t="n">
         <v>242.1918542285395</v>
       </c>
       <c r="V13" t="n">
-        <v>208.1176593467547</v>
+        <v>208.1176593467546</v>
       </c>
       <c r="W13" t="n">
-        <v>242.5030143595177</v>
+        <v>242.5030143595176</v>
       </c>
       <c r="X13" t="n">
         <v>181.6896714119638</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.5646693750215</v>
+        <v>174.5646693750214</v>
       </c>
     </row>
     <row r="14">
@@ -1607,16 +1607,16 @@
         <v>338.7138576864072</v>
       </c>
       <c r="C14" t="n">
-        <v>321.2529077939342</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.6630576436096</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>337.9103860951884</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>362.8560617646381</v>
       </c>
       <c r="G14" t="n">
         <v>366.9017416763801</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>43.59070620567311</v>
+        <v>65.16777781110248</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>159.8979861625468</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>206.9751879818286</v>
       </c>
       <c r="V14" t="n">
-        <v>283.7322744930616</v>
+        <v>283.7322744930615</v>
       </c>
       <c r="W14" t="n">
-        <v>305.2209847403396</v>
+        <v>185.8306426634412</v>
       </c>
       <c r="X14" t="n">
         <v>325.7111167013957</v>
       </c>
       <c r="Y14" t="n">
-        <v>342.2179546789803</v>
+        <v>342.2179546789802</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>135.811996204864</v>
+        <v>135.8119962048639</v>
       </c>
       <c r="C16" t="n">
         <v>123.2268371215545</v>
@@ -1774,7 +1774,7 @@
         <v>102.4139786694958</v>
       </c>
       <c r="F16" t="n">
-        <v>30.94786094992629</v>
+        <v>30.9478609499273</v>
       </c>
       <c r="G16" t="n">
         <v>122.0058242819549</v>
@@ -1783,7 +1783,7 @@
         <v>100.7350309372474</v>
       </c>
       <c r="I16" t="n">
-        <v>52.33243643276476</v>
+        <v>52.33243643276474</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.91216869297399</v>
+        <v>44.91216869297398</v>
       </c>
       <c r="S16" t="n">
-        <v>145.7490413543686</v>
+        <v>145.7490413543685</v>
       </c>
       <c r="T16" t="n">
-        <v>175.5289652990959</v>
+        <v>175.5289652990958</v>
       </c>
       <c r="U16" t="n">
         <v>242.1918542285395</v>
       </c>
       <c r="V16" t="n">
-        <v>208.1176593467547</v>
+        <v>208.1176593467546</v>
       </c>
       <c r="W16" t="n">
-        <v>242.5030143595177</v>
+        <v>242.5030143595176</v>
       </c>
       <c r="X16" t="n">
         <v>181.6896714119638</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.5646693750215</v>
+        <v>174.5646693750214</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1853,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231189</v>
+        <v>13.91332762480575</v>
       </c>
       <c r="G17" t="n">
-        <v>336.2649675602734</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T17" t="n">
         <v>156.9428335210276</v>
@@ -1901,7 +1901,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
         <v>302.2658320988205</v>
@@ -1910,7 +1910,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T19" t="n">
         <v>172.5738126575766</v>
@@ -2090,10 +2090,10 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>321.621232626896</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>247.6326277687279</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>20.94922849983693</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
         <v>280.7771218515423</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2257,7 +2257,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2494,7 +2494,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.3772837912442</v>
+        <v>49.37728379124525</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958318</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633446</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279765</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433857</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572811</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124544</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145467</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870224</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052353</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179983</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958318</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633446</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.4588260279765</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433857</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572811</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124544</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145467</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052353</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179983</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3506,16 +3506,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1606.488626099812</v>
+        <v>1277.487498118603</v>
       </c>
       <c r="C11" t="n">
-        <v>1398.083803246783</v>
+        <v>1277.487498118603</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.083803246783</v>
+        <v>963.6864297917251</v>
       </c>
       <c r="E11" t="n">
-        <v>1056.760180928411</v>
+        <v>622.3628074733531</v>
       </c>
       <c r="F11" t="n">
-        <v>690.2389064186757</v>
+        <v>622.3628074733531</v>
       </c>
       <c r="G11" t="n">
-        <v>319.6310865435442</v>
+        <v>319.6310865435441</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3259.77978341614</v>
+        <v>3259.779783416138</v>
       </c>
       <c r="T11" t="n">
-        <v>3098.266666080234</v>
+        <v>3098.266666080232</v>
       </c>
       <c r="U11" t="n">
-        <v>2889.200819633942</v>
+        <v>2889.200819633941</v>
       </c>
       <c r="V11" t="n">
-        <v>2602.602562570244</v>
+        <v>2602.602562570242</v>
       </c>
       <c r="W11" t="n">
-        <v>2294.298537580002</v>
+        <v>2294.29853758</v>
       </c>
       <c r="X11" t="n">
-        <v>2294.298537580002</v>
+        <v>1965.297409598792</v>
       </c>
       <c r="Y11" t="n">
-        <v>1948.623835884062</v>
+        <v>1619.622707902853</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>780.3612684827032</v>
+        <v>709.1964168706514</v>
       </c>
       <c r="C13" t="n">
-        <v>655.8897158346683</v>
+        <v>584.7248642226166</v>
       </c>
       <c r="D13" t="n">
-        <v>550.2377067022046</v>
+        <v>479.072855090153</v>
       </c>
       <c r="E13" t="n">
-        <v>446.7892433996836</v>
+        <v>375.624391787632</v>
       </c>
       <c r="F13" t="n">
-        <v>344.3639261816453</v>
+        <v>273.1990745695937</v>
       </c>
       <c r="G13" t="n">
-        <v>221.1257198362362</v>
+        <v>149.9608682241843</v>
       </c>
       <c r="H13" t="n">
         <v>119.373163333966</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>155.2145330164216</v>
@@ -5230,7 +5230,7 @@
         <v>1906.04375518041</v>
       </c>
       <c r="U13" t="n">
-        <v>1661.405518585925</v>
+        <v>1661.405518585926</v>
       </c>
       <c r="V13" t="n">
         <v>1451.185660659911</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1669.861483724466</v>
+        <v>1398.083803246783</v>
       </c>
       <c r="C14" t="n">
-        <v>1345.363597063926</v>
+        <v>1398.083803246783</v>
       </c>
       <c r="D14" t="n">
-        <v>1031.562528737047</v>
+        <v>1398.083803246783</v>
       </c>
       <c r="E14" t="n">
-        <v>690.2389064186757</v>
+        <v>1056.760180928411</v>
       </c>
       <c r="F14" t="n">
-        <v>690.2389064186757</v>
+        <v>690.2389064186756</v>
       </c>
       <c r="G14" t="n">
-        <v>319.6310865435442</v>
+        <v>319.6310865435441</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,19 +5276,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939507</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3281.574805239804</v>
+        <v>3259.779783416137</v>
       </c>
       <c r="T14" t="n">
-        <v>3281.574805239804</v>
+        <v>3098.266666080232</v>
       </c>
       <c r="U14" t="n">
-        <v>3281.574805239804</v>
+        <v>2889.20081963394</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.976548176105</v>
+        <v>2602.602562570242</v>
       </c>
       <c r="W14" t="n">
-        <v>2686.672523185863</v>
+        <v>2414.89484270818</v>
       </c>
       <c r="X14" t="n">
-        <v>2357.671395204655</v>
+        <v>2085.893714726972</v>
       </c>
       <c r="Y14" t="n">
-        <v>2011.996693508715</v>
+        <v>1740.219013031033</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5346,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,16 +5358,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.1964168706508</v>
+        <v>709.196416870652</v>
       </c>
       <c r="C16" t="n">
-        <v>584.7248642226159</v>
+        <v>584.7248642226172</v>
       </c>
       <c r="D16" t="n">
-        <v>479.0728550901523</v>
+        <v>479.0728550901536</v>
       </c>
       <c r="E16" t="n">
-        <v>375.6243917876312</v>
+        <v>375.6243917876325</v>
       </c>
       <c r="F16" t="n">
-        <v>344.3639261816451</v>
+        <v>344.3639261816454</v>
       </c>
       <c r="G16" t="n">
         <v>221.1257198362361</v>
       </c>
       <c r="H16" t="n">
-        <v>119.3731633339659</v>
+        <v>119.373163333966</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5437,10 +5437,10 @@
         <v>155.2145330164216</v>
       </c>
       <c r="K16" t="n">
-        <v>402.7815001026006</v>
+        <v>402.7815001026005</v>
       </c>
       <c r="L16" t="n">
-        <v>762.9210826883993</v>
+        <v>762.9210826883992</v>
       </c>
       <c r="M16" t="n">
         <v>1150.657912425251</v>
@@ -5461,7 +5461,7 @@
         <v>2230.566994224313</v>
       </c>
       <c r="S16" t="n">
-        <v>2083.345740331012</v>
+        <v>2083.345740331011</v>
       </c>
       <c r="T16" t="n">
         <v>1906.04375518041</v>
@@ -5473,13 +5473,13 @@
         <v>1451.185660659911</v>
       </c>
       <c r="W16" t="n">
-        <v>1206.233120902822</v>
+        <v>1206.233120902823</v>
       </c>
       <c r="X16" t="n">
-        <v>1022.708200284676</v>
+        <v>1022.708200284678</v>
       </c>
       <c r="Y16" t="n">
-        <v>846.3802514210183</v>
+        <v>846.3802514210196</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1990.511508412279</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C17" t="n">
-        <v>1668.998624419941</v>
+        <v>979.8546354718738</v>
       </c>
       <c r="D17" t="n">
-        <v>1358.182558761264</v>
+        <v>669.0385698131967</v>
       </c>
       <c r="E17" t="n">
-        <v>1019.843939111093</v>
+        <v>330.6999501630257</v>
       </c>
       <c r="F17" t="n">
-        <v>656.3076672695585</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G17" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,10 +5513,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5531,7 +5531,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T17" t="n">
-        <v>3167.077706941465</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U17" t="n">
-        <v>2960.996863163375</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V17" t="n">
-        <v>2960.996863163375</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W17" t="n">
-        <v>2655.677840841334</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X17" t="n">
-        <v>2329.661715528327</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y17" t="n">
-        <v>2329.661715528327</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5595,19 +5595,19 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052937</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254601</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611977</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268779</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770408</v>
+        <v>335.408918177041</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998331</v>
+        <v>215.1557144998333</v>
       </c>
       <c r="H19" t="n">
         <v>116.3881606657648</v>
@@ -5671,7 +5671,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315259</v>
+        <v>158.1401341315258</v>
       </c>
       <c r="K19" t="n">
         <v>408.6327023328088</v>
@@ -5692,22 +5692,22 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U19" t="n">
         <v>1696.750338179562</v>
       </c>
       <c r="V19" t="n">
-        <v>1489.515482921748</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W19" t="n">
         <v>1247.547945832861</v>
@@ -5716,7 +5716,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874601</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1707.656676566317</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C20" t="n">
-        <v>1386.143792573978</v>
+        <v>979.8546354718738</v>
       </c>
       <c r="D20" t="n">
-        <v>1386.143792573978</v>
+        <v>979.8546354718738</v>
       </c>
       <c r="E20" t="n">
-        <v>1047.805172923807</v>
+        <v>641.5160158217029</v>
       </c>
       <c r="F20" t="n">
-        <v>684.2689010822731</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G20" t="n">
         <v>316.6460838753429</v>
@@ -5750,10 +5750,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U20" t="n">
-        <v>3304.444984740648</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V20" t="n">
-        <v>3020.831730345151</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W20" t="n">
-        <v>2715.51270802311</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X20" t="n">
-        <v>2389.496582710104</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y20" t="n">
-        <v>2046.806883682365</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5832,10 +5832,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,31 +5847,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
         <v>1109.759191501176</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E22" t="n">
         <v>434.8492327268785</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G22" t="n">
         <v>215.1557144998337</v>
@@ -5911,7 +5911,7 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L22" t="n">
         <v>771.6978860337113</v>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D23" t="n">
         <v>1400.778593038484</v>
@@ -5975,7 +5975,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
@@ -5990,25 +5990,25 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K23" t="n">
-        <v>1092.155029011367</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L23" t="n">
-        <v>1543.189242259775</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M23" t="n">
-        <v>2076.7211469317</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N23" t="n">
-        <v>2623.499963990482</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O23" t="n">
-        <v>3126.472434869819</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P23" t="n">
-        <v>3521.246801226996</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R23" t="n">
         <v>4057.345844834458</v>
@@ -6066,13 +6066,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L24" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
@@ -6145,16 +6145,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N25" t="n">
         <v>1564.908879308444</v>
@@ -6206,13 +6206,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467783</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6230,13 +6230,13 @@
         <v>1092.155029011367</v>
       </c>
       <c r="L26" t="n">
-        <v>1706.925601880499</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M26" t="n">
-        <v>2240.457506552423</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N26" t="n">
-        <v>2787.236323611205</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O26" t="n">
         <v>3290.208794490542</v>
@@ -6248,7 +6248,7 @@
         <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309626</v>
@@ -6263,13 +6263,13 @@
         <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697991</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899655</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257031</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913832</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415461</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643384</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302692</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
         <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519654</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689498</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6461,25 +6461,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>437.4316968760677</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486248</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285457</v>
       </c>
       <c r="O29" t="n">
-        <v>3145.076209411489</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
         <v>3998.328778277655</v>
@@ -6488,25 +6488,25 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
         <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398485</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668912</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668912</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>289.235132720924</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>943.9584648562234</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.992678104632</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1928.524582776556</v>
+        <v>1863.465327102306</v>
       </c>
       <c r="N32" t="n">
-        <v>2475.303399835338</v>
+        <v>2410.244144161088</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164793</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521971</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277653</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834456</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309624</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468332</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668912</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697992</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899657</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257034</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415467</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302703</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668912</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960311</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982175</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519654</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467783</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398485</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668912</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668912</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760675</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659139</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486247</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.596005545029</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424366</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094413</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603401</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834456</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468332</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668912</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q36" t="n">
         <v>2579.688342997847</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697993</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899658</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668912</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350171</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308442</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481262</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.856749167328</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572249</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.35535505275</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386253</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297366</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519657</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689498</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697159</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038482</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467775</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486247</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.596005545029</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424366</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468332</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146291</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833284</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805546</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7248,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
         <v>229.7905149643394</v>
@@ -7327,19 +7327,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7409,28 +7409,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>1755.817188486247</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N41" t="n">
-        <v>2302.596005545029</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O41" t="n">
-        <v>2805.568476424366</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
@@ -7445,7 +7445,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
@@ -7488,25 +7488,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q42" t="n">
         <v>2579.688342997847</v>
@@ -7567,16 +7567,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7634,7 +7634,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7646,25 +7646,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486247</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.596005545029</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O44" t="n">
-        <v>2805.568476424366</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q44" t="n">
         <v>3933.269522603402</v>
@@ -7725,25 +7725,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7810,7 +7810,7 @@
         <v>423.2675027973141</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350172</v>
@@ -7822,7 +7822,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572251</v>
@@ -7834,13 +7834,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>207.0917554489378</v>
+        <v>207.0917554489381</v>
       </c>
       <c r="L8" t="n">
-        <v>219.6411280128612</v>
+        <v>219.6411280128616</v>
       </c>
       <c r="M8" t="n">
-        <v>212.4037444773055</v>
+        <v>212.4037444773059</v>
       </c>
       <c r="N8" t="n">
-        <v>211.1802466203548</v>
+        <v>211.1802466203552</v>
       </c>
       <c r="O8" t="n">
-        <v>212.8814793728458</v>
+        <v>212.8814793728462</v>
       </c>
       <c r="P8" t="n">
-        <v>216.5389132747574</v>
+        <v>216.5389132747578</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.271045881665</v>
+        <v>211.2710458816652</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>121.6722392886286</v>
+        <v>121.6722392886287</v>
       </c>
       <c r="K9" t="n">
-        <v>129.012969214495</v>
+        <v>129.0129692144953</v>
       </c>
       <c r="L9" t="n">
-        <v>126.6834126868991</v>
+        <v>126.6834126868993</v>
       </c>
       <c r="M9" t="n">
-        <v>128.2811752418613</v>
+        <v>128.2811752418616</v>
       </c>
       <c r="N9" t="n">
-        <v>117.12220945438</v>
+        <v>117.1222094543804</v>
       </c>
       <c r="O9" t="n">
-        <v>129.5881775442804</v>
+        <v>129.5881775442807</v>
       </c>
       <c r="P9" t="n">
-        <v>123.5342869155129</v>
+        <v>123.5342869155132</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.0028300142318</v>
+        <v>133.002830014232</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>128.0701282031728</v>
+        <v>128.0701282031729</v>
       </c>
       <c r="M10" t="n">
-        <v>131.7407984694295</v>
+        <v>131.7407984694296</v>
       </c>
       <c r="N10" t="n">
-        <v>120.6714018824965</v>
+        <v>120.6714018824966</v>
       </c>
       <c r="O10" t="n">
-        <v>131.9778425048107</v>
+        <v>131.9778425048109</v>
       </c>
       <c r="P10" t="n">
-        <v>132.1843604371516</v>
+        <v>132.1843604371517</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>233.4533865158185</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>165.3902622431554</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>165.3902622431551</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>165.390262243154</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10112,25 +10112,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>231.1066821161355</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>342.9371040273959</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>19.4031160254641</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>108.735493551574</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10595,19 +10595,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>287.0017854473915</v>
       </c>
       <c r="P35" t="n">
-        <v>277.2206841544133</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>287.0017854473913</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>277.2206841544151</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11069,19 +11069,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>21.74982042514728</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>277.2206841544151</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.9710754359417</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>277.2206841544151</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.20055424148122</v>
+        <v>15.20055424148123</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>114.9321331694358</v>
+        <v>321.2529077939342</v>
       </c>
       <c r="D11" t="n">
-        <v>310.6630576436096</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>362.8560617646381</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>67.19733795586927</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>325.7111167013957</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.45320309593122</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>70.45320309593127</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>321.2529077939342</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.6630576436096</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>362.8560617646381</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>21.57707160542938</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>159.8979861625468</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>206.9751879818286</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>119.3903420768985</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>70.45320309593161</v>
+        <v>70.45320309593058</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>345.9875814983131</v>
       </c>
       <c r="G17" t="n">
-        <v>27.68162147458753</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958332</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>38.27967649622286</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>183.0708068404725</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>-2.096678399233676e-12</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>941417.0542376377</v>
+        <v>941417.0542376378</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>812516.6638245322</v>
+        <v>812516.6638245321</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>812516.6638245322</v>
+        <v>812516.6638245321</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>894916.2247196174</v>
+        <v>894916.2247196173</v>
       </c>
     </row>
     <row r="13">
@@ -26317,7 +26317,7 @@
         <v>573493.4371019268</v>
       </c>
       <c r="D2" t="n">
-        <v>573499.1307539348</v>
+        <v>573499.1307539347</v>
       </c>
       <c r="E2" t="n">
         <v>531682.8376382823</v>
@@ -26329,31 +26329,31 @@
         <v>535171.7069228904</v>
       </c>
       <c r="H2" t="n">
-        <v>535171.7069228906</v>
+        <v>535171.7069228909</v>
       </c>
       <c r="I2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.238904999</v>
       </c>
       <c r="J2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="K2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="M2" t="n">
         <v>574729.2389049988</v>
       </c>
       <c r="N2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.238904999</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>21768.40754808804</v>
+        <v>21768.40754808753</v>
       </c>
       <c r="E3" t="n">
-        <v>1138563.07230445</v>
+        <v>1138563.072304451</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2364.122113215028</v>
+        <v>2364.122113215359</v>
       </c>
       <c r="H3" t="n">
         <v>1.741016149026109e-10</v>
@@ -26387,22 +26387,22 @@
         <v>48646.25967902289</v>
       </c>
       <c r="J3" t="n">
+        <v>35215.98718165868</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2364.122113215376</v>
+      </c>
+      <c r="M3" t="n">
+        <v>207188.568292073</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>35215.98718165867</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2364.122113215478</v>
-      </c>
-      <c r="M3" t="n">
-        <v>207188.5682920731</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>35215.98718165864</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>430898.5094426759</v>
       </c>
       <c r="D4" t="n">
-        <v>424104.3271603502</v>
+        <v>424104.3271603503</v>
       </c>
       <c r="E4" t="n">
-        <v>54753.55820860584</v>
+        <v>54753.55820860587</v>
       </c>
       <c r="F4" t="n">
-        <v>54753.55820860585</v>
+        <v>54753.55820860587</v>
       </c>
       <c r="G4" t="n">
         <v>57605.61344858623</v>
       </c>
       <c r="H4" t="n">
-        <v>57605.61344858626</v>
+        <v>57605.61344858623</v>
       </c>
       <c r="I4" t="n">
-        <v>80755.36360646598</v>
+        <v>80755.36360646592</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646597</v>
+        <v>80755.36360646592</v>
       </c>
       <c r="K4" t="n">
+        <v>80755.36360646589</v>
+      </c>
+      <c r="L4" t="n">
+        <v>80755.36360646595</v>
+      </c>
+      <c r="M4" t="n">
+        <v>80755.36360646595</v>
+      </c>
+      <c r="N4" t="n">
+        <v>80755.36360646595</v>
+      </c>
+      <c r="O4" t="n">
+        <v>80755.36360646592</v>
+      </c>
+      <c r="P4" t="n">
         <v>80755.36360646591</v>
-      </c>
-      <c r="L4" t="n">
-        <v>80755.36360646602</v>
-      </c>
-      <c r="M4" t="n">
-        <v>80755.36360646598</v>
-      </c>
-      <c r="N4" t="n">
-        <v>80755.36360646599</v>
-      </c>
-      <c r="O4" t="n">
-        <v>80755.36360646595</v>
-      </c>
-      <c r="P4" t="n">
-        <v>80755.36360646595</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34181.71434720628</v>
+        <v>34181.71434720627</v>
       </c>
       <c r="E5" t="n">
-        <v>78007.0565943619</v>
+        <v>78007.05659436189</v>
       </c>
       <c r="F5" t="n">
         <v>78007.05659436187</v>
@@ -26488,28 +26488,28 @@
         <v>78255.49332178175</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480609</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480609</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108967.3276592508</v>
+        <v>108962.9140813827</v>
       </c>
       <c r="C6" t="n">
-        <v>108967.3276592509</v>
+        <v>108962.9140813828</v>
       </c>
       <c r="D6" t="n">
-        <v>93444.6816982904</v>
+        <v>93440.28845489395</v>
       </c>
       <c r="E6" t="n">
-        <v>-739640.8494691356</v>
+        <v>-739794.5866165175</v>
       </c>
       <c r="F6" t="n">
-        <v>398922.2228353146</v>
+        <v>398768.4856879333</v>
       </c>
       <c r="G6" t="n">
-        <v>396946.4780393074</v>
+        <v>396805.201139371</v>
       </c>
       <c r="H6" t="n">
-        <v>399310.6001525225</v>
+        <v>399169.3232525867</v>
       </c>
       <c r="I6" t="n">
-        <v>355949.6739447038</v>
+        <v>355949.673944704</v>
       </c>
       <c r="J6" t="n">
-        <v>369379.9464420679</v>
+        <v>369379.946442068</v>
       </c>
       <c r="K6" t="n">
-        <v>404595.9336237268</v>
+        <v>404595.9336237267</v>
       </c>
       <c r="L6" t="n">
-        <v>402231.811510511</v>
+        <v>402231.8115105113</v>
       </c>
       <c r="M6" t="n">
-        <v>197407.3653316536</v>
+        <v>197407.3653316537</v>
       </c>
       <c r="N6" t="n">
-        <v>404595.9336237268</v>
+        <v>404595.9336237269</v>
       </c>
       <c r="O6" t="n">
-        <v>369379.9464420681</v>
+        <v>369379.9464420684</v>
       </c>
       <c r="P6" t="n">
         <v>404595.9336237265</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="F2" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="G2" t="n">
         <v>46.97513661859256</v>
@@ -26707,19 +26707,19 @@
         <v>46.97513661859256</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="L2" t="n">
-        <v>46.97513661859268</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859268</v>
-      </c>
       <c r="N2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859255</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.418089321389</v>
+        <v>25.41808932138841</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
@@ -26817,13 +26817,13 @@
         <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208614</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.955152641519227</v>
+        <v>2.955152641519199</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>44.01998397707335</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.95515264151922</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>44.01998397707333</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.955152641519348</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>44.0199839770733</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.418089321389</v>
+        <v>25.41808932138841</v>
       </c>
       <c r="E3" t="n">
-        <v>1064.358611271909</v>
+        <v>1064.35861127191</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.955152641519227</v>
+        <v>2.955152641519199</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707335</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,10 +27871,10 @@
         <v>338.4283176644599</v>
       </c>
       <c r="I8" t="n">
-        <v>206.5364689128668</v>
+        <v>206.5364689128669</v>
       </c>
       <c r="J8" t="n">
-        <v>3.276611732336175</v>
+        <v>3.276611732336377</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>143.4503478774926</v>
+        <v>143.4503478774927</v>
       </c>
       <c r="S8" t="n">
-        <v>206.6915682378588</v>
+        <v>206.6915682378589</v>
       </c>
       <c r="T8" t="n">
         <v>222.6485422837117</v>
@@ -27950,7 +27950,7 @@
         <v>111.7074193998389</v>
       </c>
       <c r="I9" t="n">
-        <v>87.51425548185938</v>
+        <v>87.51425548185942</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>96.76332026176027</v>
+        <v>96.76332026176036</v>
       </c>
       <c r="S9" t="n">
         <v>170.6676464974597</v>
@@ -28029,13 +28029,13 @@
         <v>161.8196496983196</v>
       </c>
       <c r="I10" t="n">
-        <v>154.072064444059</v>
+        <v>154.0720644440591</v>
       </c>
       <c r="J10" t="n">
-        <v>90.11858207319011</v>
+        <v>90.1185820731902</v>
       </c>
       <c r="K10" t="n">
-        <v>16.94419376805742</v>
+        <v>16.94419376805754</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.32391176416465</v>
+        <v>82.32391176416473</v>
       </c>
       <c r="R10" t="n">
         <v>175.2324426921926</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2178033282984</v>
+        <v>223.2178033282985</v>
       </c>
       <c r="T10" t="n">
         <v>227.7497451335101</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="C11" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="D11" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="E11" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="F11" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="G11" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="H11" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="T11" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="U11" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="V11" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="W11" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="X11" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="C13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="D13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="E13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="F13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="G13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="H13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="I13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="J13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="K13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="L13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="M13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="N13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="O13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="P13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="R13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="S13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="T13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="U13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="V13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="W13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="X13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="C14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="D14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="E14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="F14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="G14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="H14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="T14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="U14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="V14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="W14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="X14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="C16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="D16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="E16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="F16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="G16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="H16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="I16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="J16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="K16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="L16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="M16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="N16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="O16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="P16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="R16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="S16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="T16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="U16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="V16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="W16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="X16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707337</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859239</v>
       </c>
       <c r="L22" t="n">
         <v>46.97513661859256</v>
@@ -28992,7 +28992,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O22" t="n">
         <v>46.97513661859256</v>
@@ -29056,7 +29056,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29229,10 +29229,10 @@
         <v>46.97513661859256</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="P25" t="n">
         <v>46.97513661859256</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859028</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859222</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859213</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30654,13 +30654,13 @@
         <v>46.97513661859255</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859284</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P43" t="n">
         <v>46.97513661859255</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185921</v>
       </c>
       <c r="R43" t="n">
         <v>46.97513661859255</v>
@@ -30715,7 +30715,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1021832736538251</v>
+        <v>0.1021832736538227</v>
       </c>
       <c r="H8" t="n">
-        <v>1.046484451307236</v>
+        <v>1.046484451307212</v>
       </c>
       <c r="I8" t="n">
-        <v>3.939420657539095</v>
+        <v>3.939420657539003</v>
       </c>
       <c r="J8" t="n">
-        <v>8.672677622276343</v>
+        <v>8.67267762227614</v>
       </c>
       <c r="K8" t="n">
-        <v>12.99809559604276</v>
+        <v>12.99809559604246</v>
       </c>
       <c r="L8" t="n">
-        <v>16.12528695712601</v>
+        <v>16.12528695712564</v>
       </c>
       <c r="M8" t="n">
-        <v>17.94248874996723</v>
+        <v>17.94248874996681</v>
       </c>
       <c r="N8" t="n">
-        <v>18.23281697623615</v>
+        <v>18.23281697623573</v>
       </c>
       <c r="O8" t="n">
-        <v>17.21673204884093</v>
+        <v>17.21673204884053</v>
       </c>
       <c r="P8" t="n">
-        <v>14.69408248051212</v>
+        <v>14.69408248051178</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.03464399278451</v>
+        <v>11.03464399278425</v>
       </c>
       <c r="R8" t="n">
-        <v>6.418770063657094</v>
+        <v>6.418770063656945</v>
       </c>
       <c r="S8" t="n">
-        <v>2.328501348386541</v>
+        <v>2.328501348386486</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4473072804196195</v>
+        <v>0.447307280419609</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008174661892306003</v>
+        <v>0.008174661892305812</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05467287137053484</v>
+        <v>0.05467287137053357</v>
       </c>
       <c r="H9" t="n">
-        <v>0.528024836657534</v>
+        <v>0.5280248366575216</v>
       </c>
       <c r="I9" t="n">
-        <v>1.882377369555695</v>
+        <v>1.882377369555651</v>
       </c>
       <c r="J9" t="n">
-        <v>5.165387378038119</v>
+        <v>5.165387378037999</v>
       </c>
       <c r="K9" t="n">
-        <v>8.828469759863953</v>
+        <v>8.828469759863747</v>
       </c>
       <c r="L9" t="n">
-        <v>11.87096709297512</v>
+        <v>11.87096709297484</v>
       </c>
       <c r="M9" t="n">
-        <v>13.85285868015701</v>
+        <v>13.85285868015668</v>
       </c>
       <c r="N9" t="n">
-        <v>14.21950262895327</v>
+        <v>14.21950262895294</v>
       </c>
       <c r="O9" t="n">
-        <v>13.00806690016405</v>
+        <v>13.00806690016375</v>
       </c>
       <c r="P9" t="n">
-        <v>10.44012049881731</v>
+        <v>10.44012049881706</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.978944071789676</v>
+        <v>6.978944071789513</v>
       </c>
       <c r="R9" t="n">
-        <v>3.394513890882858</v>
+        <v>3.394513890882778</v>
       </c>
       <c r="S9" t="n">
-        <v>1.015524606378136</v>
+        <v>1.015524606378112</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2203700385505329</v>
+        <v>0.2203700385505278</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00359689943227203</v>
+        <v>0.003596899432271947</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04583589877627525</v>
+        <v>0.04583589877627418</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4075228091199748</v>
+        <v>0.4075228091199652</v>
       </c>
       <c r="I10" t="n">
-        <v>1.37841048319926</v>
+        <v>1.378410483199228</v>
       </c>
       <c r="J10" t="n">
-        <v>3.24059804348266</v>
+        <v>3.240598043482584</v>
       </c>
       <c r="K10" t="n">
-        <v>5.325298057825433</v>
+        <v>5.325298057825308</v>
       </c>
       <c r="L10" t="n">
-        <v>6.814548078065505</v>
+        <v>6.814548078065346</v>
       </c>
       <c r="M10" t="n">
-        <v>7.184985478175582</v>
+        <v>7.184985478175414</v>
       </c>
       <c r="N10" t="n">
-        <v>7.014142582736744</v>
+        <v>7.01414258273658</v>
       </c>
       <c r="O10" t="n">
-        <v>6.478695947032072</v>
+        <v>6.47869594703192</v>
       </c>
       <c r="P10" t="n">
-        <v>5.543643611996051</v>
+        <v>5.543643611995922</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.838131487529739</v>
+        <v>3.83813148752965</v>
       </c>
       <c r="R10" t="n">
-        <v>2.060948684976885</v>
+        <v>2.060948684976837</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7987947086738147</v>
+        <v>0.7987947086737961</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1958442947713578</v>
+        <v>0.1958442947713533</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00250013993325138</v>
+        <v>0.002500139933251322</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,37 +32303,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002938</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32342,7 +32342,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32391,16 +32391,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
         <v>300.7247737883114</v>
@@ -32409,19 +32409,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780294</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>89.59840059013956</v>
+        <v>89.59840059013959</v>
       </c>
       <c r="K13" t="n">
         <v>250.0676435213929</v>
@@ -35574,7 +35574,7 @@
         <v>363.7773561472715</v>
       </c>
       <c r="M13" t="n">
-        <v>391.6533633705571</v>
+        <v>391.6533633705572</v>
       </c>
       <c r="N13" t="n">
         <v>388.8769301446134</v>
@@ -35583,7 +35583,7 @@
         <v>346.3731141997131</v>
       </c>
       <c r="P13" t="n">
-        <v>278.9770551221837</v>
+        <v>278.9770551221838</v>
       </c>
       <c r="Q13" t="n">
         <v>122.414222514967</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859635</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K19" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
         <v>366.7325087887906</v>
@@ -36054,13 +36054,13 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
         <v>391.8320827861327</v>
@@ -36294,7 +36294,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3693751564862</v>
@@ -36358,28 +36358,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>785.75522192873</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>416.1845670468748</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597776</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412321</v>
       </c>
       <c r="P25" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3693751564862</v>
@@ -36595,25 +36595,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>620.980376635487</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>673.4432631313731</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>770.0277979463624</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>850.990104915615</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37002,7 +37002,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>210.1901169941766</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>647.6566093818008</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165887</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37239,13 +37239,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>795.0547863356106</v>
       </c>
       <c r="P35" t="n">
-        <v>675.9826703737849</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165887</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120741</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>742.5918998397235</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>675.9826703737867</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597776</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629118</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37719,7 +37719,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>574.0516558380588</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>675.9826703737867</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412326</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>793.2729108488531</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>675.9826703737867</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
